--- a/testData/ChromeData.xlsx
+++ b/testData/ChromeData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Honda CRF300L</t>
   </si>

--- a/testData/ChromeData.xlsx
+++ b/testData/ChromeData.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="UpcomingBikes" r:id="rId3" sheetId="1"/>
-    <sheet name="PopularModels" r:id="rId4" sheetId="2"/>
-    <sheet name="ErrorMessage" r:id="rId5" sheetId="3"/>
+    <sheet name="ErrorMessage" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Honda CRF300L</t>
   </si>
@@ -71,33 +70,6 @@
   </si>
   <si>
     <t>Honda Rebel 300</t>
-  </si>
-  <si>
-    <t>Maruti 800</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire</t>
-  </si>
-  <si>
-    <t>Maruti Swift</t>
-  </si>
-  <si>
-    <t>Hyundai I10</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing</t>
-  </si>
-  <si>
-    <t>Honda City</t>
-  </si>
-  <si>
-    <t>Toyota Innova</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500</t>
   </si>
   <si>
     <t>Couldn’t sign you in</t>
@@ -246,7 +218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -257,64 +229,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/testData/ChromeData.xlsx
+++ b/testData/ChromeData.xlsx
@@ -7,69 +7,61 @@
   </bookViews>
   <sheets>
     <sheet name="UpcomingBikes" r:id="rId3" sheetId="1"/>
-    <sheet name="ErrorMessage" r:id="rId4" sheetId="2"/>
+    <sheet name="PopularModels" r:id="rId4" sheetId="2"/>
+    <sheet name="ErrorMessage" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>Honda CRF300L</t>
-  </si>
-  <si>
-    <t>Rs. 3.30 Lakh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>LML Moonshot</t>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
   </si>
   <si>
     <t>Launch Date : Mar 2024</t>
   </si>
   <si>
-    <t>Honda Activa Electric</t>
-  </si>
-  <si>
-    <t>Rs. 1.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Forza 350</t>
-  </si>
-  <si>
-    <t>Rs. 3.70 Lakh</t>
-  </si>
-  <si>
-    <t>Honda CB350 Cruiser</t>
-  </si>
-  <si>
-    <t>Rs. 2.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Activa 7G</t>
-  </si>
-  <si>
-    <t>Rs. 79,000</t>
-  </si>
-  <si>
-    <t>Launch Date : Apr 2024</t>
-  </si>
-  <si>
-    <t>Honda PCX160</t>
-  </si>
-  <si>
-    <t>Rs. 1.20 Lakh</t>
-  </si>
-  <si>
-    <t>Launch Date : Jun 2024</t>
-  </si>
-  <si>
-    <t>Honda CBR150R</t>
-  </si>
-  <si>
-    <t>Rs. 1.70 Lakh</t>
-  </si>
-  <si>
-    <t>Launch Date : Unrevealed</t>
-  </si>
-  <si>
-    <t>Honda Rebel 300</t>
+    <t>LML Star</t>
+  </si>
+  <si>
+    <t>LML Orion</t>
+  </si>
+  <si>
+    <t>Rs. 40,000</t>
+  </si>
+  <si>
+    <t>Launch Date : May 2024</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Innova</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500</t>
   </si>
   <si>
     <t>Couldn’t sign you in</t>
@@ -117,7 +109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -139,7 +131,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>
@@ -147,34 +139,50 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>2</v>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -182,33 +190,20 @@
       <c r="A6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>14</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -216,7 +211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -226,7 +221,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
